--- a/target/test-classes/data.xlsx
+++ b/target/test-classes/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303581\eclipse-workspace\demo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82CB5B-394E-4000-9580-3B317CEFBDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF841B2-02A4-436F-A7C7-CDEE32039914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Orange HRM demo</t>
   </si>
@@ -81,9 +81,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,7 +379,7 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,6 +395,13 @@
       <c r="E1">
         <v>1234567890</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
